--- a/trunk/documents/final_year_projects.xlsx
+++ b/trunk/documents/final_year_projects.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Final Year Projects" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3850,25 +3849,25 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>AT89S52 Microcontroller based Edge Avoiding Robot (1200/-)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>AT89S52 RF Based 4 Channel Home Appliances Control (1800/-)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>AT89S52 Microcontroller based Edge Avoiding Robot(1200/-)</t>
     </r>
   </si>
 </sst>
@@ -4719,8 +4718,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4934,7 +4933,7 @@
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>321</v>
@@ -4942,7 +4941,7 @@
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>324</v>
